--- a/RedBusTesting/Resources/testData/TestDataForRedBus.xlsx
+++ b/RedBusTesting/Resources/testData/TestDataForRedBus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaibhavagarwal\eclipse-workspace\RedBusTesting\Resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaibhavagarwal\git\RedBus-Testing\RedBusTesting\Resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05252FB9-F2CF-40C1-B456-274CC44C2101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC83E2-2D5F-4390-BC6B-0C3A5ED1BBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="779" xr2:uid="{57D31B6C-5271-4BC7-9BCF-9A3C8BE0878B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="779" activeTab="4" xr2:uid="{57D31B6C-5271-4BC7-9BCF-9A3C8BE0878B}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchPageTestData" sheetId="1" r:id="rId1"/>
@@ -271,16 +271,16 @@
     <t>vaibhav9aggarwal@gmail.com</t>
   </si>
   <si>
-    <t>06-Apr-2021</t>
-  </si>
-  <si>
-    <t>10-07-2021-10:00 AM</t>
-  </si>
-  <si>
-    <t>11-07-2021-11:15 PM</t>
-  </si>
-  <si>
-    <t>17-July 2021</t>
+    <t>20-July 2021</t>
+  </si>
+  <si>
+    <t>20-07-2021-11:15 PM</t>
+  </si>
+  <si>
+    <t>19-07-2021-10:00 AM</t>
+  </si>
+  <si>
+    <t>20-July-2021</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866CE2D-7A03-41E5-A66E-D2508063588E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -764,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BDD4EC-7E03-4D37-97D9-356481FB1F77}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,10 +959,10 @@
         <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>68</v>
@@ -985,10 +985,10 @@
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>68</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>68</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>68</v>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -1098,10 +1098,10 @@
         <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>64</v>
@@ -1271,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79C9829-B523-4AF7-B806-88D87F3EA741}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
